--- a/Running projects/Meezan Bank Head Office/Variation work for Plant Room Modification Block II (rec on 4 June 25).xlsx
+++ b/Running projects/Meezan Bank Head Office/Variation work for Plant Room Modification Block II (rec on 4 June 25).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\Running projects\Meezan Bank Head Office\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EF1FF89-BDE9-437B-8CDA-7B32661FA28C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{336CE8DF-ECF3-493A-80CF-E2C7253D9B02}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="plant modification" sheetId="8" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'plant modification'!$A$1:$I$40</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'plant modification'!$A$1:$I$44</definedName>
   </definedNames>
   <calcPr calcId="191029" iterate="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="45">
   <si>
     <t>Dated:</t>
   </si>
@@ -151,7 +151,13 @@
     <t>Invoice # 025</t>
   </si>
   <si>
-    <t>rec</t>
+    <t>Less 4% withholding tax</t>
+  </si>
+  <si>
+    <t>Less 20% SST withheld (20% of 104,348)</t>
+  </si>
+  <si>
+    <t>Amount transferred</t>
   </si>
 </sst>
 </file>
@@ -165,7 +171,7 @@
     <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="167" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -268,6 +274,13 @@
     <font>
       <b/>
       <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -393,7 +406,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
@@ -515,6 +528,22 @@
     <xf numFmtId="166" fontId="10" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -563,22 +592,18 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="18" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="18" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="18" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -662,8 +687,8 @@
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>163046</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>248808</xdr:rowOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>277383</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1023,10 +1048,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A5:M47"/>
+  <dimension ref="A5:P50"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A25" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+      <selection activeCell="J48" sqref="J48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="29.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1060,10 +1085,10 @@
       <c r="I5" s="4"/>
     </row>
     <row r="6" spans="1:13" s="5" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="45"/>
+      <c r="B6" s="51"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -1086,49 +1111,49 @@
       <c r="G7" s="4"/>
     </row>
     <row r="8" spans="1:13" s="5" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="63" t="s">
+      <c r="A8" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="63"/>
-      <c r="C8" s="63"/>
-      <c r="D8" s="63"/>
-      <c r="E8" s="63"/>
-      <c r="F8" s="63"/>
-      <c r="G8" s="63"/>
-      <c r="H8" s="63"/>
-      <c r="I8" s="63"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
       <c r="L8" s="6"/>
       <c r="M8" s="7"/>
     </row>
     <row r="9" spans="1:13" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="64" t="s">
+      <c r="A9" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="64" t="s">
+      <c r="B9" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="64" t="s">
+      <c r="C9" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="64" t="s">
+      <c r="D9" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="65" t="s">
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="H9" s="64" t="s">
+      <c r="H9" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="I9" s="64" t="s">
+      <c r="I9" s="47" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:13" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="64"/>
-      <c r="B10" s="64"/>
-      <c r="C10" s="64"/>
+      <c r="A10" s="47"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="47"/>
       <c r="D10" s="30" t="s">
         <v>8</v>
       </c>
@@ -1138,22 +1163,22 @@
       <c r="F10" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="G10" s="65"/>
-      <c r="H10" s="64"/>
-      <c r="I10" s="64"/>
+      <c r="G10" s="48"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="47"/>
     </row>
     <row r="11" spans="1:13" s="5" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="59" t="s">
+      <c r="A11" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="59"/>
-      <c r="C11" s="59"/>
-      <c r="D11" s="59"/>
-      <c r="E11" s="59"/>
-      <c r="F11" s="59"/>
-      <c r="G11" s="59"/>
-      <c r="H11" s="59"/>
-      <c r="I11" s="59"/>
+      <c r="B11" s="65"/>
+      <c r="C11" s="65"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="65"/>
+      <c r="F11" s="65"/>
+      <c r="G11" s="65"/>
+      <c r="H11" s="65"/>
+      <c r="I11" s="65"/>
     </row>
     <row r="12" spans="1:13" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
@@ -1487,47 +1512,47 @@
       <c r="A24" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="60" t="s">
+      <c r="B24" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="60"/>
-      <c r="D24" s="60"/>
-      <c r="E24" s="60"/>
-      <c r="F24" s="60"/>
-      <c r="G24" s="60"/>
-      <c r="H24" s="60"/>
-      <c r="I24" s="60"/>
-      <c r="J24" s="60"/>
+      <c r="C24" s="66"/>
+      <c r="D24" s="66"/>
+      <c r="E24" s="66"/>
+      <c r="F24" s="66"/>
+      <c r="G24" s="66"/>
+      <c r="H24" s="66"/>
+      <c r="I24" s="66"/>
+      <c r="J24" s="66"/>
     </row>
     <row r="25" spans="1:11" s="5" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="61" t="s">
+      <c r="A25" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="61" t="s">
+      <c r="B25" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="C25" s="61" t="s">
+      <c r="C25" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="D25" s="61" t="s">
+      <c r="D25" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="E25" s="61"/>
-      <c r="F25" s="61"/>
-      <c r="G25" s="62" t="s">
+      <c r="E25" s="49"/>
+      <c r="F25" s="49"/>
+      <c r="G25" s="50" t="s">
         <v>5</v>
       </c>
       <c r="H25" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="I25" s="61" t="s">
+      <c r="I25" s="49" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:11" s="5" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="61"/>
-      <c r="B26" s="61"/>
-      <c r="C26" s="61"/>
+      <c r="A26" s="49"/>
+      <c r="B26" s="49"/>
+      <c r="C26" s="49"/>
       <c r="D26" s="32" t="s">
         <v>8</v>
       </c>
@@ -1537,9 +1562,9 @@
       <c r="F26" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="G26" s="62"/>
+      <c r="G26" s="50"/>
       <c r="H26" s="31"/>
-      <c r="I26" s="61"/>
+      <c r="I26" s="49"/>
     </row>
     <row r="27" spans="1:11" s="11" customFormat="1" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A27" s="17">
@@ -1587,47 +1612,47 @@
       </c>
     </row>
     <row r="29" spans="1:11" s="5" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="49" t="s">
+      <c r="A29" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="B29" s="50"/>
-      <c r="C29" s="50"/>
-      <c r="D29" s="50"/>
-      <c r="E29" s="50"/>
-      <c r="F29" s="50"/>
-      <c r="G29" s="50"/>
-      <c r="H29" s="50"/>
-      <c r="I29" s="51"/>
+      <c r="B29" s="56"/>
+      <c r="C29" s="56"/>
+      <c r="D29" s="56"/>
+      <c r="E29" s="56"/>
+      <c r="F29" s="56"/>
+      <c r="G29" s="56"/>
+      <c r="H29" s="56"/>
+      <c r="I29" s="57"/>
     </row>
     <row r="30" spans="1:11" s="5" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="52" t="s">
+      <c r="A30" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="B30" s="52" t="s">
+      <c r="B30" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="C30" s="52" t="s">
+      <c r="C30" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="D30" s="54" t="s">
+      <c r="D30" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="E30" s="55"/>
-      <c r="F30" s="56"/>
-      <c r="G30" s="57" t="s">
+      <c r="E30" s="61"/>
+      <c r="F30" s="62"/>
+      <c r="G30" s="63" t="s">
         <v>5</v>
       </c>
       <c r="H30" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="I30" s="52" t="s">
+      <c r="I30" s="58" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:11" s="5" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="53"/>
-      <c r="B31" s="53"/>
-      <c r="C31" s="53"/>
+      <c r="A31" s="59"/>
+      <c r="B31" s="59"/>
+      <c r="C31" s="59"/>
       <c r="D31" s="34" t="s">
         <v>8</v>
       </c>
@@ -1637,9 +1662,9 @@
       <c r="F31" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="G31" s="58"/>
+      <c r="G31" s="64"/>
       <c r="H31" s="33"/>
-      <c r="I31" s="53"/>
+      <c r="I31" s="59"/>
     </row>
     <row r="32" spans="1:11" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A32" s="8"/>
@@ -1660,7 +1685,7 @@
         <v>924337</v>
       </c>
     </row>
-    <row r="33" spans="1:10" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A33" s="8"/>
       <c r="B33" s="27" t="s">
         <v>23</v>
@@ -1687,7 +1712,7 @@
         <v>934337</v>
       </c>
     </row>
-    <row r="34" spans="1:10" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A34" s="13"/>
       <c r="B34" s="27" t="s">
         <v>14</v>
@@ -1703,7 +1728,7 @@
         <v>934337</v>
       </c>
     </row>
-    <row r="35" spans="1:10" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A35" s="13"/>
       <c r="B35" s="27" t="s">
         <v>36</v>
@@ -1721,11 +1746,11 @@
         <v>233584.25</v>
       </c>
     </row>
-    <row r="36" spans="1:10" s="25" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A36" s="46" t="s">
+    <row r="36" spans="1:16" s="25" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A36" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="B36" s="47"/>
+      <c r="B36" s="53"/>
       <c r="C36" s="19"/>
       <c r="D36" s="22"/>
       <c r="E36" s="19"/>
@@ -1738,11 +1763,11 @@
       </c>
       <c r="J36" s="24"/>
     </row>
-    <row r="37" spans="1:10" s="25" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A37" s="46" t="s">
+    <row r="37" spans="1:16" s="25" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A37" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="B37" s="47"/>
+      <c r="B37" s="53"/>
       <c r="C37" s="19"/>
       <c r="D37" s="22"/>
       <c r="E37" s="19"/>
@@ -1754,11 +1779,11 @@
       </c>
       <c r="J37" s="24"/>
     </row>
-    <row r="38" spans="1:10" s="25" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A38" s="46" t="s">
+    <row r="38" spans="1:16" s="25" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A38" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="B38" s="47"/>
+      <c r="B38" s="53"/>
       <c r="C38" s="19"/>
       <c r="D38" s="22"/>
       <c r="E38" s="19"/>
@@ -1771,11 +1796,11 @@
       </c>
       <c r="J38" s="24"/>
     </row>
-    <row r="39" spans="1:10" s="25" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A39" s="48" t="s">
+    <row r="39" spans="1:16" s="25" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A39" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="B39" s="48"/>
+      <c r="B39" s="54"/>
       <c r="C39" s="19"/>
       <c r="D39" s="22"/>
       <c r="E39" s="19"/>
@@ -1788,11 +1813,11 @@
       </c>
       <c r="J39" s="24"/>
     </row>
-    <row r="40" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A40" s="48" t="s">
+    <row r="40" spans="1:16" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A40" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="B40" s="48"/>
+      <c r="B40" s="54"/>
       <c r="C40" s="41"/>
       <c r="D40" s="41"/>
       <c r="E40" s="41"/>
@@ -1804,53 +1829,76 @@
         <v>998999.53749999998</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="H42" s="1" t="s">
+    <row r="42" spans="1:16" s="72" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E42" s="67"/>
+      <c r="F42" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="I42" s="42">
-        <v>932979</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I44" s="66">
+      <c r="G42" s="68"/>
+      <c r="H42" s="68"/>
+      <c r="I42" s="74">
         <f>I40*4%</f>
         <v>39959.981500000002</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I45" s="66">
-        <f>I40-I44</f>
-        <v>959039.55599999998</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I46" s="66">
+      <c r="J42" s="70"/>
+      <c r="K42" s="71"/>
+      <c r="N42" s="73"/>
+      <c r="P42" s="73"/>
+    </row>
+    <row r="43" spans="1:16" s="72" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E43" s="67"/>
+      <c r="F43" s="68" t="s">
+        <v>43</v>
+      </c>
+      <c r="G43" s="68"/>
+      <c r="H43" s="68"/>
+      <c r="I43" s="74">
         <f>I39*20%</f>
         <v>26060.857499999998</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I47" s="66">
-        <f>I45-I46</f>
+      <c r="K43" s="72">
+        <f>G41/115%</f>
+        <v>0</v>
+      </c>
+      <c r="N43" s="73"/>
+      <c r="P43" s="71"/>
+    </row>
+    <row r="44" spans="1:16" s="72" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E44" s="67"/>
+      <c r="F44" s="68" t="s">
+        <v>44</v>
+      </c>
+      <c r="G44" s="68"/>
+      <c r="H44" s="68"/>
+      <c r="I44" s="69">
+        <f>I40-I42-I43</f>
         <v>932978.69849999994</v>
       </c>
+      <c r="P44" s="71"/>
+    </row>
+    <row r="45" spans="1:16" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I45" s="42"/>
+    </row>
+    <row r="47" spans="1:16" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I47" s="45"/>
+    </row>
+    <row r="48" spans="1:16" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I48" s="45"/>
+    </row>
+    <row r="49" spans="9:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I49" s="45"/>
+    </row>
+    <row r="50" spans="9:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I50" s="45">
+        <f>I48-I49</f>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="29">
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="I25:I26"/>
+  <mergeCells count="32">
+    <mergeCell ref="F42:H42"/>
+    <mergeCell ref="F43:H43"/>
+    <mergeCell ref="F44:H44"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="A38:B38"/>
@@ -1867,6 +1915,19 @@
     <mergeCell ref="A11:I11"/>
     <mergeCell ref="B24:J24"/>
     <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.39370078740157483" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
